--- a/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
+++ b/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="27360" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -40,18 +40,9 @@
     <t>BrushTexture</t>
   </si>
   <si>
-    <t>Layer</t>
-  </si>
-  <si>
     <t>Ffm</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>WriteOffSpeed</t>
-  </si>
-  <si>
     <t>表Id</t>
   </si>
   <si>
@@ -61,32 +52,19 @@
     <t>笔刷贴图</t>
   </si>
   <si>
-    <t>绘制的层级</t>
-  </si>
-  <si>
     <t>补帧间距倍率(0-1)</t>
   </si>
   <si>
-    <t>开始消退时间,单位秒
-小于0则永远不会消退</t>
-  </si>
-  <si>
-    <t>消退速度, 也就是 Alpha 值每秒变化的速度</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>$LiquidLayer</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
-    <t>毒水</t>
+    <t>水</t>
   </si>
   <si>
     <t>res://resource/sprite/brush/Brush0001.png</t>
@@ -1026,25 +1004,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
-    <col min="8" max="10" width="9" style="2"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:7">
+    <row r="1" ht="22" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,83 +1034,47 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" ht="74" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="74" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>0.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1"/>

--- a/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
+++ b/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>res://resource/sprite/brush/Brush0001.png</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/brush/Brush0002.png</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -1077,7 +1083,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1"/>
+    <row r="5" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
+++ b/GunfireDungeon_Godot/excel/LiquidBrush.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="14685"/>
+    <workbookView windowWidth="29400" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -64,7 +64,7 @@
     <t>0001</t>
   </si>
   <si>
-    <t>水</t>
+    <t>中等大小4*4</t>
   </si>
   <si>
     <t>res://resource/sprite/brush/Brush0001.png</t>
@@ -73,7 +73,19 @@
     <t>0002</t>
   </si>
   <si>
+    <t>单个像素</t>
+  </si>
+  <si>
     <t>res://resource/sprite/brush/Brush0002.png</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>小2*2</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/brush/Brush0003.png</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -1055,7 +1067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="17" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,10 +1100,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -1099,6 +1111,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,7 +1145,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1133,7 +1162,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
